--- a/output/20221109/tables/betas_traits_noeffort.xlsx
+++ b/output/20221109/tables/betas_traits_noeffort.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="25">
   <si>
     <t>Outcome</t>
   </si>
@@ -188,10 +188,10 @@
         <v>22</v>
       </c>
       <c r="H2" s="1">
-        <v>0.12028630077838898</v>
+        <v>0.12436080724000931</v>
       </c>
       <c r="I2" s="1">
-        <v>0.52773666381835938</v>
+        <v>0.52366214990615845</v>
       </c>
     </row>
     <row r="3">
@@ -217,10 +217,10 @@
         <v>22</v>
       </c>
       <c r="H3" s="1">
-        <v>0.096915110945701599</v>
+        <v>0.10100854188203812</v>
       </c>
       <c r="I3" s="1">
-        <v>0.50625807046890259</v>
+        <v>0.50216466188430786</v>
       </c>
     </row>
     <row r="4">
@@ -246,10 +246,10 @@
         <v>22</v>
       </c>
       <c r="H4" s="1">
-        <v>0.07968100905418396</v>
+        <v>0.083859793841838837</v>
       </c>
       <c r="I4" s="1">
-        <v>0.49755945801734924</v>
+        <v>0.49338066577911377</v>
       </c>
     </row>
     <row r="5">
@@ -275,10 +275,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="1">
-        <v>0.76344400644302368</v>
+        <v>0.76485836505889893</v>
       </c>
       <c r="I5" s="1">
-        <v>0.90487927198410034</v>
+        <v>0.9034649133682251</v>
       </c>
     </row>
     <row r="6">
@@ -304,10 +304,10 @@
         <v>22</v>
       </c>
       <c r="H6" s="1">
-        <v>0.75980228185653687</v>
+        <v>0.76121127605438232</v>
       </c>
       <c r="I6" s="1">
-        <v>0.9007001519203186</v>
+        <v>0.89929115772247314</v>
       </c>
     </row>
     <row r="7">
@@ -333,10 +333,10 @@
         <v>22</v>
       </c>
       <c r="H7" s="1">
-        <v>0.7689666748046875</v>
+        <v>0.77029860019683838</v>
       </c>
       <c r="I7" s="1">
-        <v>0.90216219425201416</v>
+        <v>0.90083026885986328</v>
       </c>
     </row>
     <row r="8">
@@ -362,10 +362,10 @@
         <v>22</v>
       </c>
       <c r="H8" s="1">
-        <v>0.21941733360290527</v>
+        <v>0.22846108675003052</v>
       </c>
       <c r="I8" s="1">
-        <v>1.1237928867340088</v>
+        <v>1.1147490739822388</v>
       </c>
     </row>
     <row r="9">
@@ -391,10 +391,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="1">
-        <v>0.26860126852989197</v>
+        <v>0.27701675891876221</v>
       </c>
       <c r="I9" s="1">
-        <v>1.1101504564285278</v>
+        <v>1.10173499584198</v>
       </c>
     </row>
     <row r="10">
@@ -420,10 +420,10 @@
         <v>22</v>
       </c>
       <c r="H10" s="1">
-        <v>0.27431169152259827</v>
+        <v>0.28289857506752014</v>
       </c>
       <c r="I10" s="1">
-        <v>1.132999062538147</v>
+        <v>1.1244121789932251</v>
       </c>
     </row>
     <row r="11">
@@ -449,10 +449,10 @@
         <v>22</v>
       </c>
       <c r="H11" s="1">
-        <v>0.056105539202690125</v>
+        <v>0.060346517711877823</v>
       </c>
       <c r="I11" s="1">
-        <v>0.48020350933074951</v>
+        <v>0.47596254944801331</v>
       </c>
     </row>
     <row r="12">
@@ -478,10 +478,10 @@
         <v>22</v>
       </c>
       <c r="H12" s="1">
-        <v>0.022514984011650085</v>
+        <v>0.026914555579423904</v>
       </c>
       <c r="I12" s="1">
-        <v>0.46247214078903198</v>
+        <v>0.45807254314422607</v>
       </c>
     </row>
     <row r="13">
@@ -507,10 +507,10 @@
         <v>22</v>
       </c>
       <c r="H13" s="1">
-        <v>0.016127556562423706</v>
+        <v>0.020564153790473938</v>
       </c>
       <c r="I13" s="1">
-        <v>0.4597872793674469</v>
+        <v>0.45535069704055786</v>
       </c>
     </row>
     <row r="14">
@@ -536,10 +536,10 @@
         <v>22</v>
       </c>
       <c r="H14" s="1">
-        <v>-0.46716278791427612</v>
+        <v>-0.45975089073181152</v>
       </c>
       <c r="I14" s="1">
-        <v>0.27402567863464355</v>
+        <v>0.26661381125450134</v>
       </c>
     </row>
     <row r="15">
@@ -565,10 +565,10 @@
         <v>22</v>
       </c>
       <c r="H15" s="1">
-        <v>-0.43809530138969421</v>
+        <v>-0.43129760026931763</v>
       </c>
       <c r="I15" s="1">
-        <v>0.24167564511299133</v>
+        <v>0.23487792909145355</v>
       </c>
     </row>
     <row r="16">
@@ -594,10 +594,10 @@
         <v>22</v>
       </c>
       <c r="H16" s="1">
-        <v>-0.46145093441009521</v>
+        <v>-0.45413625240325928</v>
       </c>
       <c r="I16" s="1">
-        <v>0.27001696825027466</v>
+        <v>0.26270231604576111</v>
       </c>
     </row>
     <row r="17">
@@ -623,10 +623,10 @@
         <v>22</v>
       </c>
       <c r="H17" s="1">
-        <v>-0.020048752427101135</v>
+        <v>-0.018348162993788719</v>
       </c>
       <c r="I17" s="1">
-        <v>0.15001024305820465</v>
+        <v>0.14830964803695679</v>
       </c>
     </row>
     <row r="18">
@@ -652,10 +652,10 @@
         <v>22</v>
       </c>
       <c r="H18" s="1">
-        <v>-0.016244642436504364</v>
+        <v>-0.014652900397777557</v>
       </c>
       <c r="I18" s="1">
-        <v>0.14292952418327332</v>
+        <v>0.1413377970457077</v>
       </c>
     </row>
     <row r="19">
@@ -681,10 +681,10 @@
         <v>22</v>
       </c>
       <c r="H19" s="1">
-        <v>-0.016578447073698044</v>
+        <v>-0.015011650510132313</v>
       </c>
       <c r="I19" s="1">
-        <v>0.14010119438171387</v>
+        <v>0.13853439688682556</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +710,10 @@
         <v>22</v>
       </c>
       <c r="H20" s="1">
-        <v>0.2095721960067749</v>
+        <v>0.21055229008197784</v>
       </c>
       <c r="I20" s="1">
-        <v>0.30758154392242432</v>
+        <v>0.30660146474838257</v>
       </c>
     </row>
     <row r="21">
@@ -739,10 +739,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="1">
-        <v>0.20796111226081848</v>
+        <v>0.20894399285316467</v>
       </c>
       <c r="I21" s="1">
-        <v>0.30624958872795105</v>
+        <v>0.30526670813560486</v>
       </c>
     </row>
     <row r="22">
@@ -768,10 +768,10 @@
         <v>22</v>
       </c>
       <c r="H22" s="1">
-        <v>0.21146279573440552</v>
+        <v>0.21240603923797607</v>
       </c>
       <c r="I22" s="1">
-        <v>0.30578732490539551</v>
+        <v>0.30484408140182495</v>
       </c>
     </row>
     <row r="23">
@@ -797,10 +797,10 @@
         <v>22</v>
       </c>
       <c r="H23" s="1">
-        <v>4.1631526947021484</v>
+        <v>4.1820697784423828</v>
       </c>
       <c r="I23" s="1">
-        <v>6.0548629760742188</v>
+        <v>6.0359458923339844</v>
       </c>
     </row>
     <row r="24">
@@ -826,10 +826,10 @@
         <v>22</v>
       </c>
       <c r="H24" s="1">
-        <v>4.1639575958251953</v>
+        <v>4.1832270622253418</v>
       </c>
       <c r="I24" s="1">
-        <v>6.0909252166748047</v>
+        <v>6.0716557502746582</v>
       </c>
     </row>
     <row r="25">
@@ -855,10 +855,10 @@
         <v>22</v>
       </c>
       <c r="H25" s="1">
-        <v>4.172785758972168</v>
+        <v>4.1914629936218262</v>
       </c>
       <c r="I25" s="1">
-        <v>6.040501594543457</v>
+        <v>6.0218243598937988</v>
       </c>
     </row>
     <row r="26">
@@ -884,10 +884,10 @@
         <v>22</v>
       </c>
       <c r="H26" s="1">
-        <v>-0.0083688646554946899</v>
+        <v>-0.0078555736690759659</v>
       </c>
       <c r="I26" s="1">
-        <v>0.042960196733474731</v>
+        <v>0.042446907609701157</v>
       </c>
     </row>
     <row r="27">
@@ -913,10 +913,10 @@
         <v>22</v>
       </c>
       <c r="H27" s="1">
-        <v>-0.0095028672367334366</v>
+        <v>-0.0089985299855470657</v>
       </c>
       <c r="I27" s="1">
-        <v>0.04093082994222641</v>
+        <v>0.040426496416330338</v>
       </c>
     </row>
     <row r="28">
@@ -942,10 +942,10 @@
         <v>22</v>
       </c>
       <c r="H28" s="1">
-        <v>-0.0091222804039716721</v>
+        <v>-0.0086145224049687386</v>
       </c>
       <c r="I28" s="1">
-        <v>0.041653506457805634</v>
+        <v>0.041145749390125275</v>
       </c>
     </row>
     <row r="29">
@@ -971,10 +971,10 @@
         <v>22</v>
       </c>
       <c r="H29" s="1">
-        <v>-0.19138723611831665</v>
+        <v>-0.18132717907428741</v>
       </c>
       <c r="I29" s="1">
-        <v>0.81461852788925171</v>
+        <v>0.80455845594406128</v>
       </c>
     </row>
     <row r="30">
@@ -1000,10 +1000,10 @@
         <v>22</v>
       </c>
       <c r="H30" s="1">
-        <v>-0.18039849400520325</v>
+        <v>-0.17077110707759857</v>
       </c>
       <c r="I30" s="1">
-        <v>0.7823408842086792</v>
+        <v>0.77271348237991333</v>
       </c>
     </row>
     <row r="31">
@@ -1029,10 +1029,10 @@
         <v>22</v>
       </c>
       <c r="H31" s="1">
-        <v>-0.17743554711341858</v>
+        <v>-0.16830363869667053</v>
       </c>
       <c r="I31" s="1">
-        <v>0.73575484752655029</v>
+        <v>0.72662299871444702</v>
       </c>
     </row>
     <row r="32">
@@ -1058,10 +1058,10 @@
         <v>22</v>
       </c>
       <c r="H32" s="1">
-        <v>0.019265420734882355</v>
+        <v>0.020239254459738731</v>
       </c>
       <c r="I32" s="1">
-        <v>0.116648830473423</v>
+        <v>0.11567499488592148</v>
       </c>
     </row>
     <row r="33">
@@ -1087,10 +1087,10 @@
         <v>22</v>
       </c>
       <c r="H33" s="1">
-        <v>0.015665639191865921</v>
+        <v>0.016656436026096344</v>
       </c>
       <c r="I33" s="1">
-        <v>0.11474539339542389</v>
+        <v>0.11375459283590317</v>
       </c>
     </row>
     <row r="34">
@@ -1116,10 +1116,10 @@
         <v>22</v>
       </c>
       <c r="H34" s="1">
-        <v>0.016022235155105591</v>
+        <v>0.01699206605553627</v>
       </c>
       <c r="I34" s="1">
-        <v>0.1130053699016571</v>
+        <v>0.11203553527593613</v>
       </c>
     </row>
     <row r="35">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="H35" s="1">
-        <v>0.20731054246425629</v>
+        <v>0.20910288393497467</v>
       </c>
       <c r="I35" s="1">
-        <v>0.38654458522796631</v>
+        <v>0.38475227355957031</v>
       </c>
     </row>
     <row r="36">
@@ -1174,10 +1174,10 @@
         <v>22</v>
       </c>
       <c r="H36" s="1">
-        <v>0.2026698887348175</v>
+        <v>0.20453935861587524</v>
       </c>
       <c r="I36" s="1">
-        <v>0.38961741328239441</v>
+        <v>0.38774794340133667</v>
       </c>
     </row>
     <row r="37">
@@ -1203,10 +1203,10 @@
         <v>22</v>
       </c>
       <c r="H37" s="1">
-        <v>0.20368669927120209</v>
+        <v>0.20554928481578827</v>
       </c>
       <c r="I37" s="1">
-        <v>0.38994479179382324</v>
+        <v>0.38808223605155945</v>
       </c>
     </row>
     <row r="38">
@@ -1232,10 +1232,10 @@
         <v>22</v>
       </c>
       <c r="H38" s="1">
-        <v>4.0732545852661133</v>
+        <v>4.0995664596557617</v>
       </c>
       <c r="I38" s="1">
-        <v>6.7044763565063477</v>
+        <v>6.6781644821166992</v>
       </c>
     </row>
     <row r="39">
@@ -1261,10 +1261,10 @@
         <v>22</v>
       </c>
       <c r="H39" s="1">
-        <v>4.0485949516296387</v>
+        <v>4.076085090637207</v>
       </c>
       <c r="I39" s="1">
-        <v>6.7975764274597168</v>
+        <v>6.7700862884521484</v>
       </c>
     </row>
     <row r="40">
@@ -1290,10 +1290,10 @@
         <v>22</v>
       </c>
       <c r="H40" s="1">
-        <v>4.055877685546875</v>
+        <v>4.0829825401306152</v>
       </c>
       <c r="I40" s="1">
-        <v>6.7663812637329102</v>
+        <v>6.7392764091491699</v>
       </c>
     </row>
     <row r="41">
@@ -1319,10 +1319,10 @@
         <v>22</v>
       </c>
       <c r="H41" s="1">
-        <v>0.0010651461780071259</v>
+        <v>0.0014932226622477174</v>
       </c>
       <c r="I41" s="1">
-        <v>0.043872792273759842</v>
+        <v>0.043444715440273285</v>
       </c>
     </row>
     <row r="42">
@@ -1348,10 +1348,10 @@
         <v>22</v>
       </c>
       <c r="H42" s="1">
-        <v>-0.00039784051477909088</v>
+        <v>2.8386413760017604e-05</v>
       </c>
       <c r="I42" s="1">
-        <v>0.042224854230880737</v>
+        <v>0.041798625141382217</v>
       </c>
     </row>
     <row r="43">
@@ -1377,10 +1377,10 @@
         <v>22</v>
       </c>
       <c r="H43" s="1">
-        <v>0.00044230930507183075</v>
+        <v>0.0008566506439819932</v>
       </c>
       <c r="I43" s="1">
-        <v>0.041876442730426788</v>
+        <v>0.041462104767560959</v>
       </c>
     </row>
     <row r="44">
@@ -1406,10 +1406,10 @@
         <v>22</v>
       </c>
       <c r="H44" s="1">
-        <v>0.023210316896438599</v>
+        <v>0.028615837916731834</v>
       </c>
       <c r="I44" s="1">
-        <v>0.56376230716705322</v>
+        <v>0.55835682153701782</v>
       </c>
     </row>
     <row r="45">
@@ -1435,10 +1435,10 @@
         <v>22</v>
       </c>
       <c r="H45" s="1">
-        <v>0.0078126192092895508</v>
+        <v>0.013285844586789608</v>
       </c>
       <c r="I45" s="1">
-        <v>0.55513519048690796</v>
+        <v>0.54966199398040771</v>
       </c>
     </row>
     <row r="46">
@@ -1464,10 +1464,10 @@
         <v>22</v>
       </c>
       <c r="H46" s="1">
-        <v>0.0060959458351135254</v>
+        <v>0.011353068985044956</v>
       </c>
       <c r="I46" s="1">
-        <v>0.53180825710296631</v>
+        <v>0.52655112743377686</v>
       </c>
     </row>
   </sheetData>

--- a/output/20221109/tables/betas_traits_noeffort.xlsx
+++ b/output/20221109/tables/betas_traits_noeffort.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="25">
   <si>
     <t>Outcome</t>
   </si>
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0.064980745315551758</v>
+        <v>0.14027746021747589</v>
       </c>
       <c r="E17" s="1">
-        <v>0.042514748871326447</v>
+        <v>0.11668840050697327</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -623,10 +623,10 @@
         <v>22</v>
       </c>
       <c r="H17" s="1">
-        <v>-0.018348162993788719</v>
+        <v>-0.088431805372238159</v>
       </c>
       <c r="I17" s="1">
-        <v>0.14830964803695679</v>
+        <v>0.36898672580718994</v>
       </c>
     </row>
     <row r="18">
@@ -640,10 +640,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0.063342444598674774</v>
+        <v>0.10525839775800705</v>
       </c>
       <c r="E18" s="1">
-        <v>0.039793543517589569</v>
+        <v>0.11187935620546341</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -652,10 +652,10 @@
         <v>22</v>
       </c>
       <c r="H18" s="1">
-        <v>-0.014652900397777557</v>
+        <v>-0.11402513831853867</v>
       </c>
       <c r="I18" s="1">
-        <v>0.1413377970457077</v>
+        <v>0.32454192638397217</v>
       </c>
     </row>
     <row r="19">
@@ -669,10 +669,10 @@
         <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>0.061761375516653061</v>
+        <v>0.086012274026870728</v>
       </c>
       <c r="E19" s="1">
-        <v>0.039169911295175552</v>
+        <v>0.10779380798339844</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -681,10 +681,10 @@
         <v>22</v>
       </c>
       <c r="H19" s="1">
-        <v>-0.015011650510132313</v>
+        <v>-0.12526358664035797</v>
       </c>
       <c r="I19" s="1">
-        <v>0.13853439688682556</v>
+        <v>0.29728814959526062</v>
       </c>
     </row>
     <row r="20">
@@ -698,10 +698,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="1">
-        <v>0.25857686996459961</v>
+        <v>0.77207005023956299</v>
       </c>
       <c r="E20" s="1">
-        <v>0.024502338841557503</v>
+        <v>0.042151398956775665</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
@@ -710,10 +710,10 @@
         <v>22</v>
       </c>
       <c r="H20" s="1">
-        <v>0.21055229008197784</v>
+        <v>0.68945330381393433</v>
       </c>
       <c r="I20" s="1">
-        <v>0.30660146474838257</v>
+        <v>0.85468679666519165</v>
       </c>
     </row>
     <row r="21">
@@ -727,10 +727,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="1">
-        <v>0.25710535049438477</v>
+        <v>0.76392996311187744</v>
       </c>
       <c r="E21" s="1">
-        <v>0.024572122842073441</v>
+        <v>0.042095102369785309</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
@@ -739,10 +739,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="1">
-        <v>0.20894399285316467</v>
+        <v>0.68142354488372803</v>
       </c>
       <c r="I21" s="1">
-        <v>0.30526670813560486</v>
+        <v>0.84643638134002686</v>
       </c>
     </row>
     <row r="22">
@@ -756,10 +756,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="1">
-        <v>0.25862506031990051</v>
+        <v>0.7738615870475769</v>
       </c>
       <c r="E22" s="1">
-        <v>0.023581134155392647</v>
+        <v>0.0384235680103302</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -768,10 +768,10 @@
         <v>22</v>
       </c>
       <c r="H22" s="1">
-        <v>0.21240603923797607</v>
+        <v>0.69855141639709473</v>
       </c>
       <c r="I22" s="1">
-        <v>0.30484408140182495</v>
+        <v>0.84917175769805908</v>
       </c>
     </row>
     <row r="23">
@@ -785,10 +785,10 @@
         <v>15</v>
       </c>
       <c r="D23" s="1">
-        <v>5.1090078353881836</v>
+        <v>1.0425946712493896</v>
       </c>
       <c r="E23" s="1">
-        <v>0.47292757034301758</v>
+        <v>0.11899025738239288</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
@@ -797,10 +797,10 @@
         <v>22</v>
       </c>
       <c r="H23" s="1">
-        <v>4.1820697784423828</v>
+        <v>0.80937379598617554</v>
       </c>
       <c r="I23" s="1">
-        <v>6.0359458923339844</v>
+        <v>1.2758156061172485</v>
       </c>
     </row>
     <row r="24">
@@ -814,10 +814,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="1">
-        <v>5.12744140625</v>
+        <v>1.0453108549118042</v>
       </c>
       <c r="E24" s="1">
-        <v>0.48174202442169189</v>
+        <v>0.11903690546751022</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -826,10 +826,10 @@
         <v>22</v>
       </c>
       <c r="H24" s="1">
-        <v>4.1832270622253418</v>
+        <v>0.81199854612350464</v>
       </c>
       <c r="I24" s="1">
-        <v>6.0716557502746582</v>
+        <v>1.2786232233047485</v>
       </c>
     </row>
     <row r="25">
@@ -843,10 +843,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="1">
-        <v>5.1066436767578125</v>
+        <v>1.0401633977890015</v>
       </c>
       <c r="E25" s="1">
-        <v>0.46692883968353271</v>
+        <v>0.11633656919002533</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
@@ -855,10 +855,10 @@
         <v>22</v>
       </c>
       <c r="H25" s="1">
-        <v>4.1914629936218262</v>
+        <v>0.81214374303817749</v>
       </c>
       <c r="I25" s="1">
-        <v>6.0218243598937988</v>
+        <v>1.2681831121444702</v>
       </c>
     </row>
     <row r="26">
@@ -872,10 +872,10 @@
         <v>15</v>
       </c>
       <c r="D26" s="1">
-        <v>0.017295666038990021</v>
+        <v>0.13906879723072052</v>
       </c>
       <c r="E26" s="1">
-        <v>0.012832265347242355</v>
+        <v>0.094747200608253479</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -884,10 +884,10 @@
         <v>22</v>
       </c>
       <c r="H26" s="1">
-        <v>-0.0078555736690759659</v>
+        <v>-0.046635717153549194</v>
       </c>
       <c r="I26" s="1">
-        <v>0.042446907609701157</v>
+        <v>0.32477331161499023</v>
       </c>
     </row>
     <row r="27">
@@ -901,10 +901,10 @@
         <v>16</v>
       </c>
       <c r="D27" s="1">
-        <v>0.015713982284069061</v>
+        <v>0.10438137501478195</v>
       </c>
       <c r="E27" s="1">
-        <v>0.012608424760401249</v>
+        <v>0.088896416127681732</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -913,10 +913,10 @@
         <v>22</v>
       </c>
       <c r="H27" s="1">
-        <v>-0.0089985299855470657</v>
+        <v>-0.069855600595474243</v>
       </c>
       <c r="I27" s="1">
-        <v>0.040426496416330338</v>
+        <v>0.27861833572387695</v>
       </c>
     </row>
     <row r="28">
@@ -930,10 +930,10 @@
         <v>17</v>
       </c>
       <c r="D28" s="1">
-        <v>0.016265613958239555</v>
+        <v>0.10824931412935257</v>
       </c>
       <c r="E28" s="1">
-        <v>0.012693947181105614</v>
+        <v>0.088015884160995483</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -942,10 +942,10 @@
         <v>22</v>
       </c>
       <c r="H28" s="1">
-        <v>-0.0086145224049687386</v>
+        <v>-0.064261816442012787</v>
       </c>
       <c r="I28" s="1">
-        <v>0.041145749390125275</v>
+        <v>0.28076043725013733</v>
       </c>
     </row>
     <row r="29">
@@ -959,10 +959,10 @@
         <v>15</v>
       </c>
       <c r="D29" s="1">
-        <v>0.31161564588546753</v>
+        <v>0.26149716973304749</v>
       </c>
       <c r="E29" s="1">
-        <v>0.25150144100189209</v>
+        <v>0.17170630395412445</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -971,10 +971,10 @@
         <v>22</v>
       </c>
       <c r="H29" s="1">
-        <v>-0.18132717907428741</v>
+        <v>-0.075047187507152557</v>
       </c>
       <c r="I29" s="1">
-        <v>0.80455845594406128</v>
+        <v>0.59804153442382812</v>
       </c>
     </row>
     <row r="30">
@@ -988,10 +988,10 @@
         <v>16</v>
       </c>
       <c r="D30" s="1">
-        <v>0.30097118020057678</v>
+        <v>0.22199662029743195</v>
       </c>
       <c r="E30" s="1">
-        <v>0.24068483710289001</v>
+        <v>0.17070366442203522</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1000,10 +1000,10 @@
         <v>22</v>
       </c>
       <c r="H30" s="1">
-        <v>-0.17077110707759857</v>
+        <v>-0.11258256435394287</v>
       </c>
       <c r="I30" s="1">
-        <v>0.77271348237991333</v>
+        <v>0.55657577514648438</v>
       </c>
     </row>
     <row r="31">
@@ -1017,10 +1017,10 @@
         <v>17</v>
       </c>
       <c r="D31" s="1">
-        <v>0.27915966510772705</v>
+        <v>0.19604043662548065</v>
       </c>
       <c r="E31" s="1">
-        <v>0.22829760611057281</v>
+        <v>0.16363796591758728</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1029,10 +1029,10 @@
         <v>22</v>
       </c>
       <c r="H31" s="1">
-        <v>-0.16830363869667053</v>
+        <v>-0.1246899738907814</v>
       </c>
       <c r="I31" s="1">
-        <v>0.72662299871444702</v>
+        <v>0.51677083969116211</v>
       </c>
     </row>
     <row r="32">
@@ -1046,10 +1046,10 @@
         <v>15</v>
       </c>
       <c r="D32" s="1">
-        <v>0.067957125604152679</v>
+        <v>0.004408013541251421</v>
       </c>
       <c r="E32" s="1">
-        <v>0.024345852434635162</v>
+        <v>0.0013329912908375263</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -1058,10 +1058,10 @@
         <v>22</v>
       </c>
       <c r="H32" s="1">
-        <v>0.020239254459738731</v>
+        <v>0.0017953505739569664</v>
       </c>
       <c r="I32" s="1">
-        <v>0.11567499488592148</v>
+        <v>0.0070206765085458755</v>
       </c>
     </row>
     <row r="33">
@@ -1075,10 +1075,10 @@
         <v>16</v>
       </c>
       <c r="D33" s="1">
-        <v>0.065205514430999756</v>
+        <v>0.0039839497767388821</v>
       </c>
       <c r="E33" s="1">
-        <v>0.024769937619566917</v>
+        <v>0.0016661899862810969</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -1087,10 +1087,10 @@
         <v>22</v>
       </c>
       <c r="H33" s="1">
-        <v>0.016656436026096344</v>
+        <v>0.00071821740129962564</v>
       </c>
       <c r="I33" s="1">
-        <v>0.11375459283590317</v>
+        <v>0.0072496822103857994</v>
       </c>
     </row>
     <row r="34">
@@ -1104,10 +1104,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="1">
-        <v>0.064513802528381348</v>
+        <v>0.0039056963287293911</v>
       </c>
       <c r="E34" s="1">
-        <v>0.024245783686637878</v>
+        <v>0.0015684141544625163</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1116,10 +1116,10 @@
         <v>22</v>
       </c>
       <c r="H34" s="1">
-        <v>0.01699206605553627</v>
+        <v>0.00083160458598285913</v>
       </c>
       <c r="I34" s="1">
-        <v>0.11203553527593613</v>
+        <v>0.0069797881878912449</v>
       </c>
     </row>
     <row r="35">
@@ -1133,10 +1133,10 @@
         <v>15</v>
       </c>
       <c r="D35" s="1">
-        <v>0.29692757129669189</v>
+        <v>0.25779908895492554</v>
       </c>
       <c r="E35" s="1">
-        <v>0.044808514416217804</v>
+        <v>0.041645646095275879</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="H35" s="1">
-        <v>0.20910288393497467</v>
+        <v>0.1761736273765564</v>
       </c>
       <c r="I35" s="1">
-        <v>0.38475227355957031</v>
+        <v>0.33942455053329468</v>
       </c>
     </row>
     <row r="36">
@@ -1162,10 +1162,10 @@
         <v>16</v>
       </c>
       <c r="D36" s="1">
-        <v>0.29614365100860596</v>
+        <v>0.25669911503791809</v>
       </c>
       <c r="E36" s="1">
-        <v>0.046736881136894226</v>
+        <v>0.042932983487844467</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -1174,10 +1174,10 @@
         <v>22</v>
       </c>
       <c r="H36" s="1">
-        <v>0.20453935861587524</v>
+        <v>0.17255046963691711</v>
       </c>
       <c r="I36" s="1">
-        <v>0.38774794340133667</v>
+        <v>0.34084776043891907</v>
       </c>
     </row>
     <row r="37">
@@ -1191,10 +1191,10 @@
         <v>17</v>
       </c>
       <c r="D37" s="1">
-        <v>0.29681575298309326</v>
+        <v>0.25736364722251892</v>
       </c>
       <c r="E37" s="1">
-        <v>0.046564526855945587</v>
+        <v>0.042606338858604431</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
@@ -1203,10 +1203,10 @@
         <v>22</v>
       </c>
       <c r="H37" s="1">
-        <v>0.20554928481578827</v>
+        <v>0.17385523021221161</v>
       </c>
       <c r="I37" s="1">
-        <v>0.38808223605155945</v>
+        <v>0.34087207913398743</v>
       </c>
     </row>
     <row r="38">
@@ -1220,10 +1220,10 @@
         <v>15</v>
       </c>
       <c r="D38" s="1">
-        <v>5.3888654708862305</v>
+        <v>5.0924191474914551</v>
       </c>
       <c r="E38" s="1">
-        <v>0.65780550241470337</v>
+        <v>0.57012712955474854</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -1232,10 +1232,10 @@
         <v>22</v>
       </c>
       <c r="H38" s="1">
-        <v>4.0995664596557617</v>
+        <v>3.9749698638916016</v>
       </c>
       <c r="I38" s="1">
-        <v>6.6781644821166992</v>
+        <v>6.2098684310913086</v>
       </c>
     </row>
     <row r="39">
@@ -1249,10 +1249,10 @@
         <v>16</v>
       </c>
       <c r="D39" s="1">
-        <v>5.4230856895446777</v>
+        <v>5.1330761909484863</v>
       </c>
       <c r="E39" s="1">
-        <v>0.68724530935287476</v>
+        <v>0.5950850248336792</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1261,10 +1261,10 @@
         <v>22</v>
       </c>
       <c r="H39" s="1">
-        <v>4.076085090637207</v>
+        <v>3.9667096138000488</v>
       </c>
       <c r="I39" s="1">
-        <v>6.7700862884521484</v>
+        <v>6.2994427680969238</v>
       </c>
     </row>
     <row r="40">
@@ -1278,10 +1278,10 @@
         <v>17</v>
       </c>
       <c r="D40" s="1">
-        <v>5.4111294746398926</v>
+        <v>5.1145944595336914</v>
       </c>
       <c r="E40" s="1">
-        <v>0.67762589454650879</v>
+        <v>0.57889062166213989</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -1290,10 +1290,10 @@
         <v>22</v>
       </c>
       <c r="H40" s="1">
-        <v>4.0829825401306152</v>
+        <v>3.979968786239624</v>
       </c>
       <c r="I40" s="1">
-        <v>6.7392764091491699</v>
+        <v>6.2492198944091797</v>
       </c>
     </row>
     <row r="41">
@@ -1307,10 +1307,10 @@
         <v>15</v>
       </c>
       <c r="D41" s="1">
-        <v>0.022468969225883484</v>
+        <v>0.0014742759522050619</v>
       </c>
       <c r="E41" s="1">
-        <v>0.010701911523938179</v>
+        <v>0.00070770381717011333</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -1319,10 +1319,10 @@
         <v>22</v>
       </c>
       <c r="H41" s="1">
-        <v>0.0014932226622477174</v>
+        <v>8.7176471424754709e-05</v>
       </c>
       <c r="I41" s="1">
-        <v>0.043444715440273285</v>
+        <v>0.002861375454813242</v>
       </c>
     </row>
     <row r="42">
@@ -1336,10 +1336,10 @@
         <v>16</v>
       </c>
       <c r="D42" s="1">
-        <v>0.020913505926728249</v>
+        <v>0.0012385620502755046</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01065567322075367</v>
+        <v>0.0006318475934676826</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -1348,10 +1348,10 @@
         <v>22</v>
       </c>
       <c r="H42" s="1">
-        <v>2.8386413760017604e-05</v>
+        <v>1.4076708509946911e-07</v>
       </c>
       <c r="I42" s="1">
-        <v>0.041798625141382217</v>
+        <v>0.0024769832380115986</v>
       </c>
     </row>
     <row r="43">
@@ -1365,10 +1365,10 @@
         <v>17</v>
       </c>
       <c r="D43" s="1">
-        <v>0.021159376949071884</v>
+        <v>0.0012464105384424329</v>
       </c>
       <c r="E43" s="1">
-        <v>0.010358533822000027</v>
+        <v>0.00060741853667423129</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -1377,10 +1377,10 @@
         <v>22</v>
       </c>
       <c r="H43" s="1">
-        <v>0.0008566506439819932</v>
+        <v>5.5870204960228875e-05</v>
       </c>
       <c r="I43" s="1">
-        <v>0.041462104767560959</v>
+        <v>0.0024369508028030396</v>
       </c>
     </row>
     <row r="44">
@@ -1394,10 +1394,10 @@
         <v>15</v>
       </c>
       <c r="D44" s="1">
-        <v>0.2934863269329071</v>
+        <v>0.013377105817198753</v>
       </c>
       <c r="E44" s="1">
-        <v>0.13513800501823425</v>
+        <v>0.0069817281328141689</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -1406,10 +1406,10 @@
         <v>22</v>
       </c>
       <c r="H44" s="1">
-        <v>0.028615837916731834</v>
+        <v>-0.00030708132544532418</v>
       </c>
       <c r="I44" s="1">
-        <v>0.55835682153701782</v>
+        <v>0.02706129290163517</v>
       </c>
     </row>
     <row r="45">
@@ -1423,10 +1423,10 @@
         <v>16</v>
       </c>
       <c r="D45" s="1">
-        <v>0.28147390484809875</v>
+        <v>0.011803300119936466</v>
       </c>
       <c r="E45" s="1">
-        <v>0.1368306428194046</v>
+        <v>0.0081560183316469193</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -1435,10 +1435,10 @@
         <v>22</v>
       </c>
       <c r="H45" s="1">
-        <v>0.013285844586789608</v>
+        <v>-0.0041824956424534321</v>
       </c>
       <c r="I45" s="1">
-        <v>0.54966199398040771</v>
+        <v>0.027789095416665077</v>
       </c>
     </row>
     <row r="46">
@@ -1452,10 +1452,10 @@
         <v>17</v>
       </c>
       <c r="D46" s="1">
-        <v>0.26895210146903992</v>
+        <v>0.010615397244691849</v>
       </c>
       <c r="E46" s="1">
-        <v>0.1314280778169632</v>
+        <v>0.00759173184633255</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1464,10 +1464,10 @@
         <v>22</v>
       </c>
       <c r="H46" s="1">
-        <v>0.011353068985044956</v>
+        <v>-0.0042643970809876919</v>
       </c>
       <c r="I46" s="1">
-        <v>0.52655112743377686</v>
+        <v>0.025495192036032677</v>
       </c>
     </row>
   </sheetData>
